--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC27_Clearing_Storerooms_List.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC27_Clearing_Storerooms_List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF07A54-F10B-4D87-B158-ECBF879B57B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC15B2-36BB-408F-AF28-8CDCE290B167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC27_Clearing_Storerooms_List" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>TestCase</t>
   </si>
@@ -201,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -223,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,105 +686,114 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -796,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
